--- a/multiple conition.xlsx
+++ b/multiple conition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FINKI\4 semestar\sovtversko inzinerstvo\SI_2023_lab2_213202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8118757-0C82-4807-A8E4-FDFE753EA18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C320B1-705F-4B44-9F93-81330C70E19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4C7F257E-928A-497D-9FD7-F916E6F450E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>con1</t>
   </si>
@@ -68,17 +68,33 @@
     <t>po eden test primer ke ni treba za redica 3,4,5 , toa se 3 testa I plus eden od predhodno vkupno 4 testa za celiot uslov</t>
   </si>
   <si>
-    <t>test 1 = user==null, test 2= user.getPassword()==null, test 3 = user.getEmail()==null, test 4 = user!=null &amp;&amp; user.getPassword!-null &amp;&amp; user.getEmail!=null</t>
+    <t>test1=&gt;  user=null</t>
+  </si>
+  <si>
+    <t>test3 =&gt; user3 = new User("Mahmud","s123s123",null)</t>
+  </si>
+  <si>
+    <t>test4 =&gt; user4 = new User("Mahmud","s123s123","memedoskim16@gmail.com")</t>
+  </si>
+  <si>
+    <t>test2 =&gt; user2 = new User("Mahmud",null,"memedoskim16@gmail.com")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,17 +120,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,7 +453,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:Q21"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,9 +482,18 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -476,9 +505,16 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -490,9 +526,16 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -504,9 +547,16 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -518,9 +568,18 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -532,9 +591,16 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -546,9 +612,16 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -560,146 +633,157 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="E15" s="3" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="J15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="F6:L7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="F2:L5"/>
     <mergeCell ref="A15:C18"/>
     <mergeCell ref="E15:H18"/>
-    <mergeCell ref="J15:Q21"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:C12"/>
